--- a/文档/奇观.xlsx
+++ b/文档/奇观.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8927626E-710D-4557-BF6A-EB417567A2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D599667-5914-4788-B1D0-64E792871311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
   <si>
     <t>阿蒙森-斯科特研究站</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -533,10 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大工使用次数+1.本城海岸+1瓶琴鸽。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研发神学前，寺庙效果翻倍。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1免费市政，3文化，1大科点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1文化，1信仰，信仰购买伟人价格-25%。本城城区提供+2对应伟人点数。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,6 +634,106 @@
   </si>
   <si>
     <t>（剑桥大学圣三一学院）本城科技+100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1免费政策，3文化，1大科点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟定修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）处于黄金时代时，所有城市的非食物产出增加20%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）本城文化+20%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）提前允许单位进入大洋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得1个大音乐家。鼓舞升为2个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）所有城市水域+2金。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）获得2个本时代随机鼓舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）本城+50%文化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉信仰购买伟人折扣。额外一个通用槽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3弓手改为3小马。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）2文化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）3文化。获得一条商路容量和一个免费商人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得3个剑士和3个弓手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业中心改为获得大量加成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉额外的绿色能源旅游业绩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）本城雨林1粮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6格以内城市：+2文化，+2忠诚度，+2宜居度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为3文化，不再提供通用槽。（额外）本文明创建的城市+1宜居度。+4外交胜利点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大工使用次数+1。本城海岸+1瓶琴鸽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）解锁原子和信息时代的全部鼓舞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得3个建造者。所有城市每人口提供0.5生产力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）全国神祠和寺庙产出+2科研。商路加成删掉内商1鸽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）+6食物。新建城市自动获得1人口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时获得中古全部的尤里卡。同时如果一个远古古典科技已经获得了尤里卡，立即解锁这个科技。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,20 +1074,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
     <col min="2" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="18.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1014,28 +1107,31 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1051,13 +1147,16 @@
       <c r="G6" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1070,8 +1169,11 @@
       <c r="G8" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1087,18 +1189,19 @@
       <c r="G9" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1108,18 +1211,21 @@
       <c r="G12" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1129,8 +1235,11 @@
       <c r="G15" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1140,8 +1249,11 @@
       <c r="G16" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1154,13 +1266,14 @@
       <c r="G17" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1170,18 +1283,22 @@
       <c r="G19" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1194,8 +1311,11 @@
       <c r="G22" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1208,13 +1328,20 @@
       <c r="G23" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1236,8 +1363,11 @@
       <c r="G25" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1250,8 +1380,11 @@
       <c r="G26" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1267,18 +1400,21 @@
       <c r="G27" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1294,8 +1430,11 @@
       <c r="G30" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1317,13 +1456,16 @@
       <c r="G31" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1362,8 +1504,11 @@
       <c r="G34" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1376,18 +1521,21 @@
       <c r="G35" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1409,8 +1557,11 @@
       <c r="G38" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1421,7 +1572,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1435,82 +1586,90 @@
         <v>124</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1518,85 +1677,98 @@
         <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="57.6" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>

--- a/文档/奇观.xlsx
+++ b/文档/奇观.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D599667-5914-4788-B1D0-64E792871311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFD2998-7D6C-47EE-AAF6-898940CAE3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="200">
   <si>
     <t>阿蒙森-斯科特研究站</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,10 +648,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）处于黄金时代时，所有城市的非食物产出增加20%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）本城文化+20%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,14 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）3文化。获得一条商路容量和一个免费商人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（额外）立即获得3个剑士和3个弓手。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商业中心改为获得大量加成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,10 +700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改为3文化，不再提供通用槽。（额外）本文明创建的城市+1宜居度。+4外交胜利点数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大工使用次数+1。本城海岸+1瓶琴鸽。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,11 +716,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）+6食物。新建城市自动获得1人口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时获得中古全部的尤里卡。同时如果一个远古古典科技已经获得了尤里卡，立即解锁这个科技。</t>
+    <t>同时获得中古全部的尤里卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉所有城市1住房1人口，转为空中花园。新建城市自动获得1人口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）+6食物。所有城市1住房1人口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得3个剑士和3个弩手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为产出和宫殿相等的产出，不再提供通用槽。（额外）本文明创建的城市+1宜居度。+4外交胜利点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本城沙漠（非泛滥平原）+1粮1锤2金。（额外）3文化。获得一条商路容量和一个免费商人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）再加1个使徒。本城的宗教压力翻倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传播次数+2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得1个大科学家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异大陆城市加成不需要有总督。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）处于黄金时代时，所有城市的非食物产出增加15%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻土额外+1粮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）从改良和国家公园提供的业绩+100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个拥有一个以自己为宗主国的城邦便获得+2全产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）+5产能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）所有武僧获得一次免费晋升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为：+3使者。在本城中建成奇观（含阿帕达纳宫本身）时，+1使者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得一个大文学家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）每个娱乐中心提供12点旅游业绩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）全国沼泽+2食物，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）1个免费商人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）湖泊再+2金。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）2产能，2科研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆。这啥垃圾玩意儿（</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不变。遗物流死多少年了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）所有现有的异大陆城市获得一个建造者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得一个大工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）工坊和工厂+2产能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,13 +1175,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
     <col min="2" max="7" width="20.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.88671875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -1111,24 +1210,36 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
@@ -1148,13 +1259,16 @@
         <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1170,7 +1284,7 @@
         <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1189,17 +1303,25 @@
       <c r="G9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1212,18 +1334,24 @@
         <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1236,7 +1364,7 @@
         <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,10 +1378,10 @@
         <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1266,11 +1394,16 @@
       <c r="G17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1283,19 +1416,24 @@
       <c r="G19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
@@ -1312,7 +1450,7 @@
         <v>77</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1329,7 +1467,7 @@
         <v>80</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1337,9 +1475,11 @@
         <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1364,7 +1504,7 @@
         <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1381,7 +1521,7 @@
         <v>85</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1401,20 +1541,26 @@
         <v>91</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1431,7 +1577,7 @@
         <v>95</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
@@ -1457,12 +1603,15 @@
         <v>96</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1481,8 +1630,11 @@
       <c r="G33" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1505,7 +1657,7 @@
         <v>110</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
@@ -1522,17 +1674,23 @@
         <v>111</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.25">
@@ -1558,7 +1716,7 @@
         <v>119</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1571,6 +1729,9 @@
       <c r="G39" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="H39" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -1586,18 +1747,26 @@
         <v>124</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
@@ -1623,7 +1792,7 @@
         <v>127</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
@@ -1648,9 +1817,11 @@
       <c r="G44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1661,13 +1832,16 @@
         <v>132</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -1691,11 +1865,16 @@
       <c r="G47" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
@@ -1715,7 +1894,7 @@
         <v>141</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1732,7 +1911,7 @@
         <v>144</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1746,7 +1925,7 @@
         <v>146</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
@@ -1760,20 +1939,27 @@
         <v>148</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="H54" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H54" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/文档/奇观.xlsx
+++ b/文档/奇观.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFD2998-7D6C-47EE-AAF6-898940CAE3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC75931-2954-47DE-A183-553225AC2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="197">
   <si>
     <t>阿蒙森-斯科特研究站</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,10 +672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去掉信仰购买伟人折扣。额外一个通用槽。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3弓手改为3小马。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,18 +728,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改为产出和宫殿相等的产出，不再提供通用槽。（额外）本文明创建的城市+1宜居度。+4外交胜利点数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不变。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本城沙漠（非泛滥平原）+1粮1锤2金。（额外）3文化。获得一条商路容量和一个免费商人。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -816,14 +804,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摆。这啥垃圾玩意儿（</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不变。遗物流死多少年了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）所有现有的异大陆城市获得一个建造者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,6 +813,14 @@
   </si>
   <si>
     <t>（额外）工坊和工厂+2产能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为产出和宫殿相等的产出（3瓶3锤2琴6钱1住房1宜居）。（额外）+4外交胜利点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉信仰购买伟人折扣。尤里卡和鼓舞额外提供10%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,10 +1161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1210,20 +1199,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1231,18 +1220,18 @@
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1259,18 +1248,18 @@
         <v>56</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="73.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1284,7 +1273,7 @@
         <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1304,15 +1293,15 @@
         <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1320,10 +1309,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1334,26 +1323,26 @@
         <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="79.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1364,10 +1353,10 @@
         <v>67</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1381,7 +1370,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1395,15 +1384,15 @@
         <v>72</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1417,26 +1406,26 @@
         <v>74</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1442,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1456,7 @@
         <v>80</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1475,13 +1464,13 @@
         <v>23</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -1507,7 +1496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1524,7 +1513,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1544,23 +1533,23 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1577,10 +1566,10 @@
         <v>95</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1603,18 +1592,18 @@
         <v>96</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="48.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1631,10 +1620,10 @@
         <v>105</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1657,10 +1646,10 @@
         <v>110</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1677,23 +1666,23 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1719,7 +1708,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="85.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -1730,7 +1719,7 @@
         <v>120</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1747,29 +1736,29 @@
         <v>124</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1792,7 +1781,7 @@
         <v>127</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
@@ -1818,10 +1807,10 @@
         <v>130</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1832,7 +1821,7 @@
         <v>132</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1840,7 +1829,7 @@
         <v>44</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
@@ -1866,18 +1855,18 @@
         <v>137</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1894,10 +1883,10 @@
         <v>141</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1911,10 +1900,10 @@
         <v>144</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1925,10 +1914,10 @@
         <v>146</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1939,27 +1928,36 @@
         <v>148</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H54" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H54" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="摆。这啥垃圾玩意儿（"/>
+        <filter val="不变"/>
+        <filter val="不变。"/>
+        <filter val="不变。遗物流死多少年了。"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/文档/奇观.xlsx
+++ b/文档/奇观.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Sistine_civ6mod\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC75931-2954-47DE-A183-553225AC2079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A523D0FD-27D4-406D-8EB9-E210AC96D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="2460" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="194">
   <si>
     <t>阿蒙森-斯科特研究站</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,14 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去掉所有城市1住房1人口，转为空中花园。新建城市自动获得1人口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（额外）+6食物。所有城市1住房1人口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）立即获得3个剑士和3个弩手。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -760,10 +752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）从改良和国家公园提供的业绩+100%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每个拥有一个以自己为宗主国的城邦便获得+2全产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,10 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）立即获得一个大文学家。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）每个娱乐中心提供12点旅游业绩。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,7 +804,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去掉信仰购买伟人折扣。尤里卡和鼓舞额外提供10%。</t>
+    <t>尤里卡和鼓舞额外提供10%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口增长改为25%。（额外）+6食物。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,22 +1149,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="20.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
+    <col min="2" max="7" width="20.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1199,764 +1186,918 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="79.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="98.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="85.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="73.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="H51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I51" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
+    </row>
+    <row r="52" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="79.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="98.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="86.4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="48.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="51.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="85.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="72" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="I53" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="43.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="28.8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>193</v>
+      <c r="I54" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H54" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="摆。这啥垃圾玩意儿（"/>
-        <filter val="不变"/>
-        <filter val="不变。"/>
-        <filter val="不变。遗物流死多少年了。"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I54" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I54">
+      <sortCondition ref="I2:I54"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/文档/奇观.xlsx
+++ b/文档/奇观.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A523D0FD-27D4-406D-8EB9-E210AC96D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B4D652-6B62-43D3-8ED7-34D59AD6358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8715" yWindow="2460" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
   <si>
     <t>阿蒙森-斯科特研究站</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,26 +648,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）本城文化+20%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）提前允许单位进入大洋。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）立即获得1个大音乐家。鼓舞升为2个。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）所有城市水域+2金。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）获得2个本时代随机鼓舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）本城+50%文化。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）全国神祠和寺庙产出+2科研。商路加成删掉内商1鸽。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同时获得中古全部的尤里卡。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,10 +752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）每个娱乐中心提供12点旅游业绩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）全国沼泽+2食物，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,6 +789,30 @@
   </si>
   <si>
     <t>人口增长改为25%。（额外）+6食物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）每个娱乐中心提供10点旅游业绩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）全国神祠和寺庙产出+2科研。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）本城20%文化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）获得2个原子时代随机鼓舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）提供20点业绩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得1个大文学家和1个大音乐家。删去鼓舞。删去本城20%文化。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -839,12 +843,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -861,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,6 +882,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1151,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1202,8 +1215,8 @@
       <c r="G2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>171</v>
+      <c r="H2" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -1213,8 +1226,8 @@
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>171</v>
+      <c r="H3" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -1224,8 +1237,8 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>184</v>
+      <c r="H4" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1253,8 +1266,8 @@
       <c r="G5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>193</v>
+      <c r="H5" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1282,8 +1295,8 @@
       <c r="G6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>192</v>
+      <c r="H6" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1311,8 +1324,8 @@
       <c r="G7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>171</v>
+      <c r="H7" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -1331,8 +1344,8 @@
       <c r="G8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>160</v>
+      <c r="H8" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1348,8 +1361,8 @@
       <c r="G9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>161</v>
+      <c r="H9" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
@@ -1359,8 +1372,8 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>182</v>
+      <c r="H10" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1371,10 +1384,10 @@
         <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I11" s="1">
         <v>2</v>
@@ -1402,8 +1415,8 @@
       <c r="G12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>156</v>
+      <c r="H12" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="I12" s="1">
         <v>2</v>
@@ -1431,8 +1444,8 @@
       <c r="G13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>169</v>
+      <c r="H13" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="I13" s="1">
         <v>2</v>
@@ -1442,8 +1455,8 @@
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>187</v>
+      <c r="H14" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -1471,8 +1484,8 @@
       <c r="G15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>154</v>
+      <c r="H15" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -1488,8 +1501,8 @@
       <c r="G16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>173</v>
+      <c r="H16" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -1509,10 +1522,10 @@
         <v>124</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -1528,8 +1541,8 @@
       <c r="G18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>172</v>
+      <c r="H18" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="I18" s="1">
         <v>2</v>
@@ -1551,8 +1564,8 @@
       <c r="G19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>159</v>
+      <c r="H19" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
@@ -1568,8 +1581,8 @@
       <c r="G20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>170</v>
+      <c r="H20" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
@@ -1579,8 +1592,8 @@
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>171</v>
+      <c r="H21" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I21" s="1">
         <v>3</v>
@@ -1590,8 +1603,8 @@
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>181</v>
+      <c r="H22" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="I22" s="1">
         <v>3</v>
@@ -1607,8 +1620,8 @@
       <c r="G23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>168</v>
+      <c r="H23" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="I23" s="1">
         <v>3</v>
@@ -1624,8 +1637,8 @@
       <c r="G24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>153</v>
+      <c r="H24" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
@@ -1644,8 +1657,8 @@
       <c r="G25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>171</v>
+      <c r="H25" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
@@ -1664,8 +1677,8 @@
       <c r="G26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>163</v>
+      <c r="H26" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
@@ -1687,8 +1700,8 @@
       <c r="G27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>174</v>
+      <c r="H27" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="I27" s="1">
         <v>3</v>
@@ -1698,8 +1711,8 @@
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>186</v>
+      <c r="H28" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="I28" s="1">
         <v>3</v>
@@ -1709,8 +1722,8 @@
       <c r="A29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>171</v>
+      <c r="H29" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I29" s="1">
         <v>3</v>
@@ -1720,8 +1733,8 @@
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>171</v>
+      <c r="H30" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I30" s="1">
         <v>3</v>
@@ -1732,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I31" s="1">
         <v>4</v>
@@ -1743,7 +1756,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I32" s="1">
         <v>4</v>
@@ -1763,7 +1776,7 @@
         <v>59</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I33" s="1">
         <v>4</v>
@@ -1786,7 +1799,7 @@
         <v>95</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I34" s="1">
         <v>4</v>
@@ -1797,7 +1810,7 @@
         <v>30</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I35" s="1">
         <v>4</v>
@@ -1807,8 +1820,8 @@
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>171</v>
+      <c r="H36" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I36" s="1">
         <v>4</v>
@@ -1819,7 +1832,7 @@
         <v>51</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I37" s="1">
         <v>4</v>
@@ -1830,7 +1843,7 @@
         <v>52</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I38" s="1">
         <v>4</v>
@@ -1853,7 +1866,7 @@
         <v>56</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I39" s="1">
         <v>5</v>
@@ -1864,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I40" s="1">
         <v>5</v>
@@ -1875,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I41" s="1">
         <v>5</v>
@@ -1891,8 +1904,8 @@
       <c r="G42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>171</v>
+      <c r="H42" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I42" s="1">
         <v>5</v>
@@ -1902,8 +1915,8 @@
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>171</v>
+      <c r="H43" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I43" s="1">
         <v>5</v>
@@ -1923,7 +1936,7 @@
         <v>111</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I44" s="1">
         <v>5</v>
@@ -1951,8 +1964,8 @@
       <c r="G45" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>171</v>
+      <c r="H45" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I45" s="1">
         <v>5</v>
@@ -1963,7 +1976,7 @@
         <v>46</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I46" s="1">
         <v>5</v>
@@ -1973,8 +1986,8 @@
       <c r="A47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>171</v>
+      <c r="H47" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I47" s="1">
         <v>6</v>
@@ -1994,7 +2007,7 @@
         <v>77</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="I48" s="1">
         <v>6</v>
@@ -2014,7 +2027,7 @@
         <v>85</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="I49" s="1">
         <v>6</v>
@@ -2037,7 +2050,7 @@
         <v>91</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="I50" s="1">
         <v>6</v>
@@ -2048,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I51" s="1">
         <v>7</v>
@@ -2059,7 +2072,7 @@
         <v>18</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I52" s="1">
         <v>7</v>
@@ -2070,7 +2083,7 @@
         <v>26</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="I53" s="1">
         <v>7</v>
@@ -2087,7 +2100,7 @@
         <v>146</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I54" s="1">
         <v>7</v>

--- a/文档/奇观.xlsx
+++ b/文档/奇观.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B4D652-6B62-43D3-8ED7-34D59AD6358E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86047E20-264E-41B6-B4C4-46663C382B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="2460" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="4185" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="194">
   <si>
     <t>阿蒙森-斯科特研究站</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,10 +736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每个拥有一个以自己为宗主国的城邦便获得+2全产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）+5产能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -780,10 +776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改为产出和宫殿相等的产出（3瓶3锤2琴6钱1住房1宜居）。（额外）+4外交胜利点数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尤里卡和鼓舞额外提供10%。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,10 +784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）每个娱乐中心提供10点旅游业绩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（额外）全国神祠和寺庙产出+2科研。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,11 +796,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（额外）提供20点业绩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（额外）立即获得1个大文学家和1个大音乐家。删去鼓舞。删去本城20%文化。</t>
+    <t>（额外）+4外交胜利点数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个拥有一个以自己为宗主国的城邦便获得+2瓶琴钱鸽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）立即获得1个大文学家和1个大音乐家。删去鼓舞。删去本城20%文化。6点文化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（额外）每个娱乐中心和水上乐园提供10点旅游业绩。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1164,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1238,7 +1234,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -1267,7 +1263,7 @@
         <v>110</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1296,7 +1292,7 @@
         <v>127</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1373,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1456,7 +1452,7 @@
         <v>35</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -1604,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I22" s="1">
         <v>3</v>
@@ -1621,7 +1617,7 @@
         <v>67</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I23" s="1">
         <v>3</v>
@@ -1638,7 +1634,7 @@
         <v>69</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
@@ -1712,7 +1708,7 @@
         <v>34</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I28" s="1">
         <v>3</v>
@@ -1744,7 +1740,7 @@
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="4" t="s">
         <v>172</v>
       </c>
       <c r="I31" s="1">
@@ -1755,7 +1751,7 @@
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>174</v>
       </c>
       <c r="I32" s="1">
@@ -1775,7 +1771,7 @@
       <c r="G33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="4" t="s">
         <v>173</v>
       </c>
       <c r="I33" s="1">
@@ -1798,8 +1794,8 @@
       <c r="G34" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>186</v>
+      <c r="H34" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="I34" s="1">
         <v>4</v>
@@ -1809,8 +1805,8 @@
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>180</v>
+      <c r="H35" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="I35" s="1">
         <v>4</v>
@@ -1831,8 +1827,8 @@
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>183</v>
+      <c r="H37" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="I37" s="1">
         <v>4</v>
@@ -1842,8 +1838,8 @@
       <c r="A38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>184</v>
+      <c r="H38" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="I38" s="1">
         <v>4</v>
@@ -1865,7 +1861,7 @@
       <c r="G39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="4" t="s">
         <v>164</v>
       </c>
       <c r="I39" s="1">
@@ -1876,8 +1872,8 @@
       <c r="A40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>175</v>
+      <c r="H40" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="I40" s="1">
         <v>5</v>
@@ -1887,8 +1883,8 @@
       <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>176</v>
+      <c r="H41" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="I41" s="1">
         <v>5</v>
@@ -1935,7 +1931,7 @@
       <c r="G44" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="4" t="s">
         <v>155</v>
       </c>
       <c r="I44" s="1">
@@ -1975,8 +1971,8 @@
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>185</v>
+      <c r="H46" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="I46" s="1">
         <v>5</v>
@@ -1993,7 +1989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>20</v>
       </c>
@@ -2006,8 +2002,8 @@
       <c r="G48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>194</v>
+      <c r="H48" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="I48" s="1">
         <v>6</v>
@@ -2026,8 +2022,8 @@
       <c r="G49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>192</v>
+      <c r="H49" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="I49" s="1">
         <v>6</v>
@@ -2049,8 +2045,8 @@
       <c r="G50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>193</v>
+      <c r="H50" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="I50" s="1">
         <v>6</v>
@@ -2060,7 +2056,7 @@
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="4" t="s">
         <v>171</v>
       </c>
       <c r="I51" s="1">
@@ -2071,7 +2067,7 @@
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="4" t="s">
         <v>159</v>
       </c>
       <c r="I52" s="1">
@@ -2082,8 +2078,8 @@
       <c r="A53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>189</v>
+      <c r="H53" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="I53" s="1">
         <v>7</v>
@@ -2099,7 +2095,7 @@
       <c r="G54" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I54" s="1">

--- a/文档/奇观.xlsx
+++ b/文档/奇观.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Admin\Documents\GitHub\Sistine_civ6mod\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7834447B-C7B9-469A-B1F2-5709DF10A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFB72A1-9E9A-4FA7-ACEC-33A03F894544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7035" yWindow="5205" windowWidth="26205" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,18 +839,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -867,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,7 +874,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1160,15 +1157,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="7" width="20.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1191,7 +1188,7 @@
       <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>152</v>
       </c>
     </row>
